--- a/biology/Microbiologie/Discicristata/Discicristata.xlsx
+++ b/biology/Microbiologie/Discicristata/Discicristata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Discicristata ou Discicristés sont un groupe d'organismes unicellulaires (Euglenozoa et Percolozoa), auparavant classés parmi les Excavata au sens large. Le terme se réfère aux crêtes discoïdes des mitochondries de ces organismes. Ce groupe est aujourd'hui abandonné par tous les systématiciens : pour les cladistes il est  paraphylétique, et pour les évolutionnistes il ne forme pas un grade évolutif suffisamment homogène[1]. Il apparaît en effet que les euglénozoaires sont très différents des autres protozoaires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Discicristata ou Discicristés sont un groupe d'organismes unicellulaires (Euglenozoa et Percolozoa), auparavant classés parmi les Excavata au sens large. Le terme se réfère aux crêtes discoïdes des mitochondries de ces organismes. Ce groupe est aujourd'hui abandonné par tous les systématiciens : pour les cladistes il est  paraphylétique, et pour les évolutionnistes il ne forme pas un grade évolutif suffisamment homogène. Il apparaît en effet que les euglénozoaires sont très différents des autres protozoaires.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Super-embranchement des Discicristata
 Embranchement des Euglenozoa
